--- a/datos_tabla_a.xlsx
+++ b/datos_tabla_a.xlsx
@@ -8,24 +8,38 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\TutorialesPropios\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63AEF04B-152E-4512-A7BD-5DEFACC4C9A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3CD95EC-3E10-48C5-914F-1B1CDB8A3827}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>ID</t>
   </si>
@@ -67,16 +81,25 @@
   </si>
   <si>
     <t>BILBAO</t>
+  </si>
+  <si>
+    <t>Salario</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -108,7 +131,11 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{35E37DD5-4F9C-4B21-88B3-633239CAFE90}"/>
   </tableStyles>
@@ -121,6 +148,38 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Hoja1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FD8D5E75-D5C6-434A-A047-12B6B21243BE}" name="Tabla1" displayName="Tabla1" ref="A1:E6" totalsRowShown="0">
+  <autoFilter ref="A1:E6" xr:uid="{FD8D5E75-D5C6-434A-A047-12B6B21243BE}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{1885DC39-516E-4550-804E-86D7746A95EB}" name="ID"/>
+    <tableColumn id="2" xr3:uid="{5B27116D-C1A3-47F2-8337-6311AA09824C}" name="NOMBRE"/>
+    <tableColumn id="3" xr3:uid="{66471D98-FC47-4FB7-B7AA-EA103217B2F5}" name="EDAD"/>
+    <tableColumn id="4" xr3:uid="{80A201DD-7F0B-43CF-A21F-7D19E9525745}" name="CIUDAD"/>
+    <tableColumn id="7" xr3:uid="{F6936E44-D9CC-4CEA-A760-92059EBCE43E}" name="Salario" dataDxfId="0">
+      <calculatedColumnFormula>+[1]!Tabla1[[#This Row],[SALARIO]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -386,15 +445,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -407,8 +472,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -421,8 +489,12 @@
       <c r="D2" t="s">
         <v>9</v>
       </c>
+      <c r="E2">
+        <f>+[1]!Tabla1[[#This Row],[SALARIO]]</f>
+        <v>3000</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -435,8 +507,12 @@
       <c r="D3" t="s">
         <v>10</v>
       </c>
+      <c r="E3">
+        <f>+[1]!Tabla1[[#This Row],[SALARIO]]</f>
+        <v>6500</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -449,8 +525,12 @@
       <c r="D4" t="s">
         <v>11</v>
       </c>
+      <c r="E4">
+        <f>+[1]!Tabla1[[#This Row],[SALARIO]]</f>
+        <v>3500</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -463,8 +543,12 @@
       <c r="D5" t="s">
         <v>12</v>
       </c>
+      <c r="E5">
+        <f>+[1]!Tabla1[[#This Row],[SALARIO]]</f>
+        <v>4500</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -477,8 +561,16 @@
       <c r="D6" t="s">
         <v>13</v>
       </c>
+      <c r="E6">
+        <f>+[1]!Tabla1[[#This Row],[SALARIO]]</f>
+        <v>9000</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>